--- a/season-data/cleaning/subsets/incorrect games.xlsx
+++ b/season-data/cleaning/subsets/incorrect games.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2007-8" sheetId="1" r:id="rId1"/>
-    <sheet name="2008-9" sheetId="2" r:id="rId2"/>
+    <sheet name="2007-08" sheetId="1" r:id="rId1"/>
+    <sheet name="2008-09" sheetId="2" r:id="rId2"/>
     <sheet name="2009-10" sheetId="3" r:id="rId3"/>
     <sheet name="2010-11" sheetId="4" r:id="rId4"/>
     <sheet name="2011-12" sheetId="5" r:id="rId5"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>NL</t>
+  </si>
+  <si>
+    <t>Orlando</t>
   </si>
   <si>
     <t>Atlanta</t>
@@ -752,39 +755,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
+    <row r="1" spans="1:10">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>1028</v>
+      </c>
+      <c r="B2" s="2">
+        <v>39820</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>102</v>
+      </c>
+      <c r="F2">
+        <v>-42</v>
+      </c>
+      <c r="G2">
+        <v>26</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>106</v>
+      </c>
+      <c r="J2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>1029</v>
+      </c>
+      <c r="B3" s="2">
+        <v>39820</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>99</v>
+      </c>
+      <c r="F3">
+        <v>-54</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3">
+        <v>102</v>
+      </c>
+      <c r="J3">
+        <v>-140</v>
       </c>
     </row>
   </sheetData>
@@ -840,7 +907,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>24</v>
@@ -872,7 +939,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>28</v>

--- a/season-data/cleaning/subsets/incorrect games.xlsx
+++ b/season-data/cleaning/subsets/incorrect games.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
   </si>
 </sst>
 </file>
@@ -861,7 +864,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -960,6 +963,70 @@
         <v>120</v>
       </c>
     </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>1112</v>
+      </c>
+      <c r="B4" s="2">
+        <v>40190</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>53</v>
+      </c>
+      <c r="F4">
+        <v>-2</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>33</v>
+      </c>
+      <c r="I4">
+        <v>109</v>
+      </c>
+      <c r="J4">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>1113</v>
+      </c>
+      <c r="B5" s="2">
+        <v>40190</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>58</v>
+      </c>
+      <c r="F5">
+        <v>-3</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>88</v>
+      </c>
+      <c r="J5">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
